--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\All-others\Random\RanniBotPy\RanniPy\Data\SaveFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50009D4-655A-4F09-90E8-50493B7AAE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -40,20 +46,14 @@
     <t>FavFood</t>
   </si>
   <si>
-    <t>Draco</t>
-  </si>
-  <si>
-    <t>Dino</t>
-  </si>
-  <si>
-    <t>shy</t>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,13 +101,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -116,6 +130,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +216,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +268,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,14 +461,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,83 +495,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\All-others\Random\RanniBotPy\RanniPy\Data\SaveFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50009D4-655A-4F09-90E8-50493B7AAE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -47,13 +41,28 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>Draco</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>05/30/2022</t>
+  </si>
+  <si>
+    <t>shy</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,27 +110,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -130,14 +125,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -184,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,27 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,24 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,16 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +444,66 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -43,13 +43,22 @@
     <t>Owner</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>Draco</t>
   </si>
   <si>
-    <t>Dino</t>
+    <t>Dog🐶</t>
+  </si>
+  <si>
+    <t>Dino🦖</t>
   </si>
   <si>
     <t>05/30/2022</t>
+  </si>
+  <si>
+    <t>0 years, 0 months, and 0 days</t>
   </si>
   <si>
     <t>shy</t>
@@ -413,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,16 +465,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -474,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,28 +491,57 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -34,25 +34,19 @@
     <t>Nature</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FavFood</t>
+  </si>
+  <si>
     <t>ImageURL</t>
   </si>
   <si>
-    <t>FavFood</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Draco</t>
-  </si>
-  <si>
-    <t>Dog🐶</t>
-  </si>
-  <si>
-    <t>Dino🦖</t>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>Cat🐱</t>
   </si>
   <si>
     <t>05/30/2022</t>
@@ -61,7 +55,7 @@
     <t>0 years, 0 months, and 0 days</t>
   </si>
   <si>
-    <t>shy</t>
+    <t>Mild</t>
   </si>
   <si>
     <t>Riccardo</t>
@@ -422,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,16 +459,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -483,65 +477,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -46,9 +46,24 @@
     <t>tester</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
     <t>Cat🐱</t>
   </si>
   <si>
+    <t>Dog🐶</t>
+  </si>
+  <si>
+    <t>Pig🐷</t>
+  </si>
+  <si>
+    <t>Cow🐮</t>
+  </si>
+  <si>
     <t>05/30/2022</t>
   </si>
   <si>
@@ -56,6 +71,15 @@
   </si>
   <si>
     <t>Mild</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>Jolly</t>
   </si>
   <si>
     <t>Riccardo</t>
@@ -416,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,25 +483,112 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -43,46 +43,34 @@
     <t>ImageURL</t>
   </si>
   <si>
-    <t>tester</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>Cat🐱</t>
-  </si>
-  <si>
-    <t>Dog🐶</t>
-  </si>
-  <si>
-    <t>Pig🐷</t>
-  </si>
-  <si>
-    <t>Cow🐮</t>
+    <t>Draco</t>
+  </si>
+  <si>
+    <t>Tobee</t>
+  </si>
+  <si>
+    <t>Dino🦖</t>
+  </si>
+  <si>
+    <t>Bee🐝</t>
   </si>
   <si>
     <t>05/30/2022</t>
   </si>
   <si>
-    <t>0 years, 0 months, and 0 days</t>
-  </si>
-  <si>
-    <t>Mild</t>
-  </si>
-  <si>
-    <t>Naive</t>
-  </si>
-  <si>
-    <t>Brave</t>
-  </si>
-  <si>
-    <t>Jolly</t>
+    <t>0 y, 0 m, and 1 d</t>
+  </si>
+  <si>
+    <t>Hasty</t>
+  </si>
+  <si>
+    <t>Hardy</t>
   </si>
   <si>
     <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Danni</t>
   </si>
 </sst>
 </file>
@@ -440,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,25 +471,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -509,85 +497,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -58,7 +58,7 @@
     <t>05/30/2022</t>
   </si>
   <si>
-    <t>0 y, 0 m, and 1 d</t>
+    <t>0 y, 1 m, and 19 d</t>
   </si>
   <si>
     <t>Hasty</t>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -58,7 +58,7 @@
     <t>05/30/2022</t>
   </si>
   <si>
-    <t>0 y, 1 m, and 19 d</t>
+    <t>0 y, 3 m, and 6 d</t>
   </si>
   <si>
     <t>Hasty</t>

--- a/Data/SaveFiles/Pets.xlsx
+++ b/Data/SaveFiles/Pets.xlsx
@@ -58,7 +58,7 @@
     <t>05/30/2022</t>
   </si>
   <si>
-    <t>0 y, 3 m, and 6 d</t>
+    <t>0 y, 6 m, and 23 d</t>
   </si>
   <si>
     <t>Hasty</t>
